--- a/data/trans_camb/P22_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P22_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,59</t>
+          <t>-12,92; 9,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 9,54</t>
+          <t>-12,68; 9,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 5,74</t>
+          <t>-16,99; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 8,98</t>
+          <t>-12,08; 7,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,14</t>
+          <t>-3,99; 15,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 6,79</t>
+          <t>-8,41; 12,48</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 4,72</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 9,15</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 5,95</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-12,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,19%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 20,84</t>
+          <t>-31,23; 30,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 30,03</t>
+          <t>-31,96; 28,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 13,99</t>
+          <t>-43,84; 20,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 21,33</t>
+          <t>-24,58; 17,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 11,16</t>
+          <t>-7,48; 37,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 17,9</t>
+          <t>-17,24; 31,38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,13; 12,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 23,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-23,66; 14,77</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 9,24</t>
+          <t>-16,55; 9,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 11,41</t>
+          <t>-13,99; 12,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 8,55</t>
+          <t>-16,72; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 6,17</t>
+          <t>-14,55; 7,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 5,36</t>
+          <t>-14,79; 7,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 4,96</t>
+          <t>-14,59; 10,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; 4,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,36; 5,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,75; 6,07</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-8,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>-4,86%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-9,49%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-7,28%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 36,34</t>
+          <t>-38,76; 32,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 43,16</t>
+          <t>-31,62; 40,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 22,81</t>
+          <t>-37,32; 30,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 15,97</t>
+          <t>-29,55; 18,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 15,41</t>
+          <t>-29,95; 18,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 14,04</t>
+          <t>-28,88; 27,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-27,64; 11,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-24,57; 15,76</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-26,28; 16,57</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>-4,61</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 18,3</t>
+          <t>-41,71; 25,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 30,83</t>
+          <t>-34,42; 32,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 17,07</t>
+          <t>-33,26; 35,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 26,09</t>
+          <t>-12,41; 33,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 13,29</t>
+          <t>-16,96; 28,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 22,23</t>
+          <t>-26,67; 17,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,81; 22,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,83; 24,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; 23,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-11,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,54%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>-11,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,45; 68,59</t>
+          <t>-57,8; 67,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 108,2</t>
+          <t>-49,83; 84,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 52,87</t>
+          <t>-47,66; 91,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 84,41</t>
+          <t>-24,24; 120,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 40,73</t>
+          <t>-33,27; 99,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 67,01</t>
+          <t>-53,33; 57,5</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-35,22; 56,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,63; 61,98</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-38,06; 60,3</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,74</t>
+          <t>-11,74; 5,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 7,51</t>
+          <t>-10,43; 8,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 4,17</t>
+          <t>-13,06; 6,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,2</t>
+          <t>-8,41; 5,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,97</t>
+          <t>-5,33; 9,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,7</t>
+          <t>-8,07; 6,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 2,79</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 6,19</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 4,66</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 15,51</t>
+          <t>-27,07; 16,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 24,58</t>
+          <t>-23,76; 23,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 10,15</t>
+          <t>-30,88; 18,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 13,01</t>
+          <t>-17,2; 12,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 7,89</t>
+          <t>-10,98; 21,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 12,16</t>
+          <t>-16,68; 16,06</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 6,9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 15,65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-18,08; 11,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
